--- a/Public/template/template_xyxx.xlsx
+++ b/Public/template/template_xyxx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23910" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>学号</t>
   </si>
@@ -237,6 +237,45 @@
   </si>
   <si>
     <t>报名日期是否本月之后</t>
+  </si>
+  <si>
+    <t>剩余课次</t>
+  </si>
+  <si>
+    <t>剩余单价</t>
+  </si>
+  <si>
+    <t>本月月末剩余学费</t>
+  </si>
+  <si>
+    <t>是否秒杀</t>
+  </si>
+  <si>
+    <t>是否有课销</t>
+  </si>
+  <si>
+    <t>续费</t>
+  </si>
+  <si>
+    <t>是否考核流失/退费</t>
+  </si>
+  <si>
+    <t>班型</t>
+  </si>
+  <si>
+    <t>精读老师</t>
+  </si>
+  <si>
+    <t>泛读老师</t>
+  </si>
+  <si>
+    <t>是否已考核</t>
+  </si>
+  <si>
+    <t>是否参与续费率计算</t>
+  </si>
+  <si>
+    <t>不参与续费率结算原因</t>
   </si>
 </sst>
 </file>
@@ -244,10 +283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -287,23 +326,45 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,67 +372,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +402,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -394,30 +448,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,6 +495,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,97 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,67 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,6 +704,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -676,6 +730,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,18 +784,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,32 +801,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -770,10 +809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,133 +821,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,18 +1328,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:BW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BD7" sqref="BD7"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BW1" sqref="BW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="63" max="63" width="19.25" customWidth="1"/>
+    <col min="67" max="67" width="14.75" customWidth="1"/>
+    <col min="74" max="74" width="18.5" customWidth="1"/>
+    <col min="75" max="75" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:60">
+    <row r="1" ht="40.5" spans="1:75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,6 +1523,51 @@
       </c>
       <c r="BH1" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
